--- a/data/validazione.xlsx
+++ b/data/validazione.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{AB1EB067-6F4B-4DC1-ABA1-DBB061550504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{505B2AD9-35CE-404F-B3D1-C8B4993A0EF1}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{AB1EB067-6F4B-4DC1-ABA1-DBB061550504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39059D7E-50E2-4968-B909-7EA21C8C7997}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
   </bookViews>
@@ -261,10 +261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -289,20 +285,24 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -329,6 +329,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -628,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B0CFC0-6B65-4A53-A15E-ECBF83434F62}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -640,42 +644,43 @@
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="20" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -694,12 +699,12 @@
       <c r="F3">
         <v>17.899999999999999</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <f>IF(F3&gt;D3+E3,F3-(D3+E3),IF(F3&lt;D3-E3,(D3-E3)-F3,0))</f>
         <v>0.37392099999999573</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="C4" t="s">
         <v>5</v>
@@ -713,12 +718,12 @@
       <c r="F4">
         <v>12987.4</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <f t="shared" ref="G4:G33" si="0">IF(F4&gt;D4+E4,F4-(D4+E4),IF(F4&lt;D4-E4,(D4-E4)-F4,0))</f>
         <v>507.85356700000011</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>2</v>
@@ -735,12 +740,12 @@
       <c r="F5">
         <v>10</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <f t="shared" si="0"/>
         <v>0.2390629999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="C6" t="s">
         <v>5</v>
@@ -754,12 +759,12 @@
       <c r="F6">
         <v>8623</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="14">
         <f t="shared" si="0"/>
         <v>415.33998900000006</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -776,12 +781,12 @@
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="C8" t="s">
         <v>5</v>
@@ -795,12 +800,12 @@
       <c r="F8">
         <v>3939</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="14">
         <f t="shared" si="0"/>
         <v>137.52601899999991</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>0</v>
@@ -817,12 +822,12 @@
       <c r="F9">
         <v>1.5</v>
       </c>
-      <c r="G9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G9" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="C10" t="s">
         <v>5</v>
@@ -836,12 +841,12 @@
       <c r="F10">
         <v>993.6</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="14">
         <f t="shared" si="0"/>
         <v>0.15568100000007234</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -860,12 +865,12 @@
       <c r="F11">
         <v>1.5</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="14">
         <f t="shared" si="0"/>
         <v>1.423745</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
         <v>5</v>
@@ -879,12 +884,12 @@
       <c r="F12">
         <v>938.3</v>
       </c>
-      <c r="G12" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>2</v>
@@ -901,12 +906,12 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="C14" t="s">
         <v>5</v>
@@ -920,12 +925,12 @@
       <c r="F14">
         <v>469.5</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="14">
         <f t="shared" si="0"/>
         <v>0.32534799999996267</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>1</v>
@@ -942,12 +947,12 @@
       <c r="F15">
         <v>0.5</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="14">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
         <v>5</v>
@@ -961,7 +966,7 @@
       <c r="F16">
         <v>285.60000000000002</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -983,7 +988,7 @@
       <c r="F17">
         <v>0.1</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="14">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -1002,7 +1007,7 @@
       <c r="F18">
         <v>42.9</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1026,7 +1031,7 @@
       <c r="F19">
         <v>2.5</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="14">
         <f t="shared" si="0"/>
         <v>2.46827</v>
       </c>
@@ -1045,7 +1050,7 @@
       <c r="F20">
         <v>1439.5</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1067,7 +1072,7 @@
       <c r="F21">
         <v>1.2</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="14">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
@@ -1086,7 +1091,7 @@
       <c r="F22">
         <v>818.7</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1108,7 +1113,7 @@
       <c r="F23">
         <v>0.4</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="14">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
@@ -1127,7 +1132,7 @@
       <c r="F24">
         <v>430.7</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1149,7 +1154,7 @@
       <c r="F25">
         <v>0.3</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="14">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
@@ -1168,7 +1173,7 @@
       <c r="F26">
         <v>76.099999999999994</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1192,7 +1197,7 @@
       <c r="F27">
         <v>20.391061452513966</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="14">
         <f t="shared" si="0"/>
         <v>1.2282005474860362</v>
       </c>
@@ -1211,7 +1216,7 @@
       <c r="F28">
         <v>2.8129070045237708E-2</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="14">
         <f t="shared" si="0"/>
         <v>1.0879299547622914E-3</v>
       </c>
@@ -1233,7 +1238,7 @@
       <c r="F29">
         <v>36.5</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="14">
         <f t="shared" si="0"/>
         <v>3.2144520000000014</v>
       </c>
@@ -1252,7 +1257,7 @@
       <c r="F30">
         <v>4.2378785064090665E-2</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="14">
         <f t="shared" si="0"/>
         <v>2.0022149359093314E-3</v>
       </c>
@@ -1274,7 +1279,7 @@
       <c r="F31">
         <v>73</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="14">
         <f t="shared" si="0"/>
         <v>6.9454290000000043</v>
       </c>
@@ -1293,7 +1298,7 @@
       <c r="F32">
         <v>9.2771451809678718E-2</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="14">
         <f t="shared" si="0"/>
         <v>3.1275481903212804E-3</v>
       </c>
@@ -1315,7 +1320,7 @@
       <c r="F33">
         <v>243.33333333333337</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="15">
         <f t="shared" si="0"/>
         <v>35.371068333333369</v>
       </c>
@@ -1334,7 +1339,7 @@
       <c r="F34">
         <v>0.3679435483870967</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="14">
         <f>IF(F34&gt;D34+E34,F34-(D34+E34),IF(F34&lt;D34-E34,(D34-E34)-F34,0))</f>
         <v>0</v>
       </c>
@@ -1350,16 +1355,16 @@
         <v>6</v>
       </c>
       <c r="D35" s="1">
-        <v>3.0000000000000001E-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="25">
         <v>1460</v>
       </c>
-      <c r="G35" s="19">
-        <f>IF(F35&gt;D43+E43,F35-(D43+E43),IF(F35&lt;D43-E43,(D43-E43)-F35,0))</f>
+      <c r="G35" s="21">
+        <f>IF(F35-365&gt;D43+E43,F35-365-(D43+E43),IF(F35+365&lt;D43-E43,(D43-E43)-F35-365,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -1369,13 +1374,13 @@
         <v>5</v>
       </c>
       <c r="D36" s="1">
-        <v>4097.7327310000001</v>
+        <v>2841.3727509999999</v>
       </c>
       <c r="E36">
-        <v>623.23231099999998</v>
-      </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
+        <v>409.66006700000003</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
@@ -1391,8 +1396,8 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
@@ -1400,13 +1405,13 @@
         <v>5</v>
       </c>
       <c r="D38" s="1">
-        <v>3942.4209049999999</v>
+        <v>2702.361081</v>
       </c>
       <c r="E38">
-        <v>596.01755400000002</v>
-      </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
+        <v>391.2876</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
@@ -1422,8 +1427,8 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="19"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
@@ -1431,13 +1436,13 @@
         <v>5</v>
       </c>
       <c r="D40" s="1">
-        <v>4045.996048</v>
+        <v>2803.6823370000002</v>
       </c>
       <c r="E40">
-        <v>615.03599399999996</v>
-      </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="19"/>
+        <v>405.61871300000001</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
@@ -1453,8 +1458,8 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="19"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -1462,24 +1467,26 @@
         <v>5</v>
       </c>
       <c r="D42" s="1">
-        <v>264.36756800000001</v>
+        <v>6.6198899999999998</v>
       </c>
       <c r="E42">
-        <v>24.251809999999999</v>
-      </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
+        <v>0.52680000000000005</v>
+      </c>
+      <c r="F42" s="25"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="D43" s="1">
-        <v>1543.8146571249999</v>
-      </c>
-      <c r="E43">
-        <v>232.31720862499969</v>
-      </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
+        <f>AVERAGE(D35:D42)</f>
+        <v>1044.2545077500001</v>
+      </c>
+      <c r="E43" s="1">
+        <f>AVERAGE(E35:E42)</f>
+        <v>150.88664750000001</v>
+      </c>
+      <c r="F43" s="25"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -1497,7 +1504,7 @@
       <c r="E44">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="G44" s="16"/>
+      <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
@@ -1510,7 +1517,7 @@
       <c r="E45">
         <v>11275.159146</v>
       </c>
-      <c r="G45" s="16"/>
+      <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -1526,7 +1533,7 @@
       <c r="E46">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G46" s="16"/>
+      <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
@@ -1539,7 +1546,7 @@
       <c r="E47">
         <v>7764.6596410000002</v>
       </c>
-      <c r="G47" s="16"/>
+      <c r="G47" s="14"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
@@ -1555,7 +1562,7 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="G48" s="16"/>
+      <c r="G48" s="14"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
@@ -1568,7 +1575,7 @@
       <c r="E49">
         <v>3392.401691</v>
       </c>
-      <c r="G49" s="16"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
@@ -1584,7 +1591,7 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="G50" s="16"/>
+      <c r="G50" s="14"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
@@ -1599,21 +1606,21 @@
         <v>70.460891000000004</v>
       </c>
       <c r="F51" s="3"/>
-      <c r="G51" s="20"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="8"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="22"/>
+      <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B53" s="3"/>
@@ -1621,7 +1628,7 @@
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="20"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -1639,7 +1646,7 @@
       <c r="F54">
         <v>4060.6</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="14">
         <f>IF(F54&gt;D54+E54,F54-(D54+E54),IF(F54&lt;D54-E54,(D54-E54)-F54,0))</f>
         <v>0</v>
       </c>
@@ -1658,7 +1665,7 @@
       <c r="F55">
         <v>3151.7</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="14">
         <f t="shared" ref="G55:G64" si="1">IF(F55&gt;D55+E55,F55-(D55+E55),IF(F55&lt;D55-E55,(D55-E55)-F55,0))</f>
         <v>0.80117800000016359</v>
       </c>
@@ -1677,7 +1684,7 @@
       <c r="F56">
         <v>1013.7</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1696,7 +1703,7 @@
       <c r="F57">
         <v>293.3</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1717,7 +1724,7 @@
       <c r="F58">
         <v>3742.6</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1736,7 +1743,7 @@
       <c r="F59">
         <v>1626.7</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1755,7 +1762,7 @@
       <c r="F60">
         <v>487.2</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1774,7 +1781,7 @@
       <c r="F61">
         <v>75.5</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G61" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1795,7 +1802,7 @@
       <c r="F62">
         <v>8.9888193862975932E-2</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G62" s="14">
         <f>IF(F62&gt;D62+E62,F62-(D62+E62),IF(F62&lt;D62-E62,(D62-E62)-F62,0))</f>
         <v>7.8806137024073353E-5</v>
       </c>
@@ -1814,7 +1821,7 @@
       <c r="F63">
         <v>0.11581051496018022</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G63" s="14">
         <f t="shared" si="1"/>
         <v>9.245149601802144E-4</v>
       </c>
@@ -1833,7 +1840,7 @@
       <c r="F64">
         <v>0.36006708099043105</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G64" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1853,24 +1860,24 @@
       <c r="F65" s="3">
         <v>1.2444595976815547</v>
       </c>
-      <c r="G65" s="20">
+      <c r="G65" s="16">
         <f>IF(F65&gt;D65+E65,F65-(D65+E65),IF(F65&lt;D65-E65,(D65-E65)-F65,0))</f>
         <v>1.1314402318445271E-2</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="8"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="6"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="22"/>
+      <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B67" s="3"/>
@@ -1878,7 +1885,7 @@
       <c r="D67" s="2"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="20"/>
+      <c r="G67" s="16"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
@@ -1896,7 +1903,7 @@
       <c r="F68">
         <v>4195.3999999999996</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G68" s="14">
         <f>IF(F68&gt;D68+E68,F68-(D68+E68),IF(F68&lt;D68-E68,(D68-E68)-F68,0))</f>
         <v>0</v>
       </c>
@@ -1915,7 +1922,7 @@
       <c r="F69">
         <v>2886.5</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G69" s="14">
         <f t="shared" ref="G69:G79" si="2">IF(F69&gt;D69+E69,F69-(D69+E69),IF(F69&lt;D69-E69,(D69-E69)-F69,0))</f>
         <v>0</v>
       </c>
@@ -1934,7 +1941,7 @@
       <c r="F70">
         <v>1287.3</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G70" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1953,7 +1960,7 @@
       <c r="F71">
         <v>344.2</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G71" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1974,7 +1981,7 @@
       <c r="F72">
         <v>1459.7</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G72" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1993,7 +2000,7 @@
       <c r="F73">
         <v>863.3</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G73" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2012,7 +2019,7 @@
       <c r="F74">
         <v>447.8</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G74" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2031,7 +2038,7 @@
       <c r="F75">
         <v>86.6</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G75" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2052,7 +2059,7 @@
       <c r="F76">
         <v>4122.1000000000004</v>
       </c>
-      <c r="G76" s="16">
+      <c r="G76" s="14">
         <f t="shared" si="2"/>
         <v>1016.1010720000004</v>
       </c>
@@ -2071,7 +2078,7 @@
       <c r="F77">
         <v>2441.3000000000002</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G77" s="14">
         <f t="shared" si="2"/>
         <v>306.68115699999998</v>
       </c>
@@ -2090,7 +2097,7 @@
       <c r="F78">
         <v>1271.5</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G78" s="14">
         <f t="shared" si="2"/>
         <v>311.34058299999992</v>
       </c>
@@ -2109,13 +2116,13 @@
       <c r="F79">
         <v>241.9</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G79" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E81" s="24"/>
+      <c r="E81" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/data/validazione.xlsx
+++ b/data/validazione.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{AB1EB067-6F4B-4DC1-ABA1-DBB061550504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39059D7E-50E2-4968-B909-7EA21C8C7997}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{AB1EB067-6F4B-4DC1-ABA1-DBB061550504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33B36889-CB96-410E-8B8B-F83E026479B5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="ABO Compatible" sheetId="6" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="26">
   <si>
     <t>AB</t>
   </si>
@@ -162,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -250,16 +251,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -269,12 +306,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -290,6 +321,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -300,7 +339,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -634,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B0CFC0-6B65-4A53-A15E-ECBF83434F62}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -644,37 +683,37 @@
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="17" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I2"/>
@@ -693,13 +732,13 @@
       <c r="D3" s="1">
         <v>16.428571000000002</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="18">
         <v>1.0975079999999999</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="19">
         <v>17.899999999999999</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="11">
         <f>IF(F3&gt;D3+E3,F3-(D3+E3),IF(F3&lt;D3-E3,(D3-E3)-F3,0))</f>
         <v>0.37392099999999573</v>
       </c>
@@ -712,13 +751,13 @@
       <c r="D4" s="1">
         <v>12455.412698</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="18">
         <v>24.133735000000001</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="19">
         <v>12987.4</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="11">
         <f t="shared" ref="G4:G33" si="0">IF(F4&gt;D4+E4,F4-(D4+E4),IF(F4&lt;D4-E4,(D4-E4)-F4,0))</f>
         <v>507.85356700000011</v>
       </c>
@@ -734,13 +773,13 @@
       <c r="D5" s="1">
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="18">
         <v>0.76093699999999997</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="19">
         <v>10</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="11">
         <f t="shared" si="0"/>
         <v>0.2390629999999998</v>
       </c>
@@ -753,13 +792,13 @@
       <c r="D6" s="1">
         <v>8186.3492059999999</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="18">
         <v>21.310804999999998</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="19">
         <v>8623</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <f t="shared" si="0"/>
         <v>415.33998900000006</v>
       </c>
@@ -775,13 +814,13 @@
       <c r="D7" s="1">
         <v>5.2063490000000003</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="18">
         <v>0.69068700000000005</v>
       </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" s="14">
+      <c r="F7" s="19">
+        <v>5</v>
+      </c>
+      <c r="G7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -794,13 +833,13 @@
       <c r="D8" s="1">
         <v>3783.3015869999999</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="18">
         <v>18.172394000000001</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="19">
         <v>3939</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>137.52601899999991</v>
       </c>
@@ -816,13 +855,13 @@
       <c r="D9" s="1">
         <v>1.6825399999999999</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="18">
         <v>0.37525799999999998</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="19">
         <v>1.5</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -835,13 +874,13 @@
       <c r="D10" s="1">
         <v>986.38095199999998</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="18">
         <v>7.0633670000000004</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="19">
         <v>993.6</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>0.15568100000007234</v>
       </c>
@@ -859,13 +898,13 @@
       <c r="D11" s="1">
         <v>3.1746000000000003E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="18">
         <v>4.4509E-2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="19">
         <v>1.5</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="11">
         <f t="shared" si="0"/>
         <v>1.423745</v>
       </c>
@@ -878,13 +917,13 @@
       <c r="D12" s="1">
         <v>941.07936500000005</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="18">
         <v>7.858225</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="19">
         <v>938.3</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -900,13 +939,13 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
         <v>1</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -919,13 +958,13 @@
       <c r="D14" s="1">
         <v>475.39682499999998</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="18">
         <v>5.5714769999999998</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="19">
         <v>469.5</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="11">
         <f t="shared" si="0"/>
         <v>0.32534799999996267</v>
       </c>
@@ -941,13 +980,13 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
         <v>0.5</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="11">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -960,13 +999,13 @@
       <c r="D16" s="1">
         <v>282.82539700000001</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="18">
         <v>3.6826840000000001</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="19">
         <v>285.60000000000002</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -982,13 +1021,13 @@
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
         <v>0.1</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="11">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -1001,13 +1040,13 @@
       <c r="D18" s="1">
         <v>42.126984</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="18">
         <v>1.330721</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="19">
         <v>42.9</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1025,13 +1064,13 @@
       <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="18">
         <v>3.1730000000000001E-2</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="19">
         <v>2.5</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="11">
         <f t="shared" si="0"/>
         <v>2.46827</v>
       </c>
@@ -1044,13 +1083,13 @@
       <c r="D20" s="1">
         <v>1435.7777779999999</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="18">
         <v>7.9132059999999997</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="19">
         <v>1439.5</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1066,13 +1105,13 @@
       <c r="D21" s="1">
         <v>0</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
         <v>1.2</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="11">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
@@ -1085,13 +1124,13 @@
       <c r="D22" s="1">
         <v>818.57142899999997</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="18">
         <v>9.0237049999999996</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="19">
         <v>818.7</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1107,13 +1146,13 @@
       <c r="D23" s="1">
         <v>0</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="19">
         <v>0.4</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="11">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
@@ -1126,13 +1165,13 @@
       <c r="D24" s="1">
         <v>429.76190500000001</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="18">
         <v>4.6620730000000004</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="19">
         <v>430.7</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1148,13 +1187,13 @@
       <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+      <c r="F25" s="19">
         <v>0.3</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="11">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
@@ -1167,13 +1206,13 @@
       <c r="D26" s="1">
         <v>74.984127000000001</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="18">
         <v>2.1778460000000002</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="19">
         <v>76.099999999999994</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1191,13 +1230,13 @@
       <c r="D27" s="1">
         <v>21.770078000000002</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="18">
         <v>0.15081600000000001</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="19">
         <v>20.391061452513966</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="11">
         <f t="shared" si="0"/>
         <v>1.2282005474860362</v>
       </c>
@@ -1210,13 +1249,13 @@
       <c r="D28" s="1">
         <v>2.9321E-2</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="18">
         <v>1.0399999999999999E-4</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="19">
         <v>2.8129070045237708E-2</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="11">
         <f t="shared" si="0"/>
         <v>1.0879299547622914E-3</v>
       </c>
@@ -1232,13 +1271,13 @@
       <c r="D29" s="1">
         <v>40.112430000000003</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="18">
         <v>0.397978</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="19">
         <v>36.5</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="11">
         <f t="shared" si="0"/>
         <v>3.2144520000000014</v>
       </c>
@@ -1251,13 +1290,13 @@
       <c r="D30" s="1">
         <v>4.4674999999999999E-2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="18">
         <v>2.9399999999999999E-4</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="19">
         <v>4.2378785064090665E-2</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="11">
         <f t="shared" si="0"/>
         <v>2.0022149359093314E-3</v>
       </c>
@@ -1273,13 +1312,13 @@
       <c r="D31" s="1">
         <v>83.044183000000004</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="18">
         <v>3.098754</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="19">
         <v>73</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="11">
         <f t="shared" si="0"/>
         <v>6.9454290000000043</v>
       </c>
@@ -1292,13 +1331,13 @@
       <c r="D32" s="1">
         <v>9.6095E-2</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="18">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="19">
         <v>9.2771451809678718E-2</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="11">
         <f t="shared" si="0"/>
         <v>3.1275481903212804E-3</v>
       </c>
@@ -1314,13 +1353,13 @@
       <c r="D33" s="1">
         <v>200.179982</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="18">
         <v>7.7822829999999996</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="19">
         <v>243.33333333333337</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="12">
         <f t="shared" si="0"/>
         <v>35.371068333333369</v>
       </c>
@@ -1333,13 +1372,13 @@
       <c r="D34" s="1">
         <v>0.36931999999999998</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="18">
         <v>3.846E-3</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="19">
         <v>0.3679435483870967</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="11">
         <f>IF(F34&gt;D34+E34,F34-(D34+E34),IF(F34&lt;D34-E34,(D34-E34)-F34,0))</f>
         <v>0</v>
       </c>
@@ -1357,14 +1396,15 @@
       <c r="D35" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" s="25">
-        <v>1460</v>
-      </c>
-      <c r="G35" s="21">
-        <f>IF(F35-365&gt;D43+E43,F35-365-(D43+E43),IF(F35+365&lt;D43-E43,(D43-E43)-F35-365,0))</f>
+      <c r="E35" s="18">
+        <v>0</v>
+      </c>
+      <c r="F35" s="28">
+        <f>3*365</f>
+        <v>1095</v>
+      </c>
+      <c r="G35" s="24">
+        <f>IF(F35&gt;D43+E43,F35-(D43+E43),IF(F41&lt;D43-E43,(D43-E43)-F41,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -1376,11 +1416,11 @@
       <c r="D36" s="1">
         <v>2841.3727509999999</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="18">
         <v>409.66006700000003</v>
       </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="21"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
@@ -1393,11 +1433,11 @@
       <c r="D37" s="1">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="21"/>
+      <c r="E37" s="18">
+        <v>0</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
@@ -1407,11 +1447,14 @@
       <c r="D38" s="1">
         <v>2702.361081</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="18">
         <v>391.2876</v>
       </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="21"/>
+      <c r="F38" s="28">
+        <f>4*365</f>
+        <v>1460</v>
+      </c>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
@@ -1424,11 +1467,11 @@
       <c r="D39" s="1">
         <v>0</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="21"/>
+      <c r="E39" s="18">
+        <v>0</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
@@ -1438,11 +1481,11 @@
       <c r="D40" s="1">
         <v>2803.6823370000002</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="18">
         <v>405.61871300000001</v>
       </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="21"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
@@ -1455,11 +1498,14 @@
       <c r="D41" s="1">
         <v>0</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="21"/>
+      <c r="E41" s="18">
+        <v>0</v>
+      </c>
+      <c r="F41" s="28">
+        <f>5*365</f>
+        <v>1825</v>
+      </c>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -1469,11 +1515,11 @@
       <c r="D42" s="1">
         <v>6.6198899999999998</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="18">
         <v>0.52680000000000005</v>
       </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="21"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
@@ -1481,12 +1527,12 @@
         <f>AVERAGE(D35:D42)</f>
         <v>1044.2545077500001</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="19">
         <f>AVERAGE(E35:E42)</f>
         <v>150.88664750000001</v>
       </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="21"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -1501,10 +1547,11 @@
       <c r="D44" s="1">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="18">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="G44" s="14"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
@@ -1514,10 +1561,11 @@
       <c r="D45" s="1">
         <v>74599.153778000007</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="18">
         <v>11275.159146</v>
       </c>
-      <c r="G45" s="14"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -1530,10 +1578,11 @@
       <c r="D46" s="1">
         <v>2.8E-5</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="18">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G46" s="14"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
@@ -1543,10 +1592,11 @@
       <c r="D47" s="1">
         <v>51317.041239999999</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="18">
         <v>7764.6596410000002</v>
       </c>
-      <c r="G47" s="14"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
@@ -1559,10 +1609,11 @@
       <c r="D48" s="1">
         <v>0</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="G48" s="14"/>
+      <c r="E48" s="18">
+        <v>0</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
@@ -1572,10 +1623,11 @@
       <c r="D49" s="1">
         <v>22624.879687000001</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="18">
         <v>3392.401691</v>
       </c>
-      <c r="G49" s="14"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
@@ -1588,10 +1640,11 @@
       <c r="D50" s="1">
         <v>0</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="G50" s="14"/>
+      <c r="E50" s="18">
+        <v>0</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
@@ -1602,33 +1655,41 @@
       <c r="D51" s="2">
         <v>731.49029099999996</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="20">
         <v>70.460891000000004</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="16"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="6"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="17"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="14"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="16"/>
+      <c r="D53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -1640,13 +1701,13 @@
       <c r="D54" s="1">
         <v>4060.3968249999998</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="18">
         <v>14.208821</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="19">
         <v>4060.6</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="11">
         <f>IF(F54&gt;D54+E54,F54-(D54+E54),IF(F54&lt;D54-E54,(D54-E54)-F54,0))</f>
         <v>0</v>
       </c>
@@ -1659,13 +1720,13 @@
       <c r="D55" s="1">
         <v>3166.8412699999999</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="18">
         <v>14.340092</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="19">
         <v>3151.7</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="11">
         <f t="shared" ref="G55:G64" si="1">IF(F55&gt;D55+E55,F55-(D55+E55),IF(F55&lt;D55-E55,(D55-E55)-F55,0))</f>
         <v>0.80117800000016359</v>
       </c>
@@ -1678,13 +1739,13 @@
       <c r="D56" s="1">
         <v>1013.555556</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="18">
         <v>8.5236059999999991</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="19">
         <v>1013.7</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1697,13 +1758,13 @@
       <c r="D57" s="1">
         <v>289.79365100000001</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="18">
         <v>4.1658980000000003</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="19">
         <v>293.3</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1718,13 +1779,13 @@
       <c r="D58" s="1">
         <v>3736.3174600000002</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="18">
         <v>15.111469</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="19">
         <v>3742.6</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1737,13 +1798,13 @@
       <c r="D59" s="1">
         <v>1625.142857</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="18">
         <v>10.164438000000001</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="19">
         <v>1626.7</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1756,13 +1817,13 @@
       <c r="D60" s="1">
         <v>490.30158699999998</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="18">
         <v>5.2621440000000002</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="19">
         <v>487.2</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1775,13 +1836,13 @@
       <c r="D61" s="1">
         <v>74.746032</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="18">
         <v>1.8059069999999999</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="19">
         <v>75.5</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1796,13 +1857,13 @@
       <c r="D62" s="1">
         <v>9.0015999999999999E-2</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="18">
         <v>4.8999999999999998E-5</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="19">
         <v>8.9888193862975932E-2</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="11">
         <f>IF(F62&gt;D62+E62,F62-(D62+E62),IF(F62&lt;D62-E62,(D62-E62)-F62,0))</f>
         <v>7.8806137024073353E-5</v>
       </c>
@@ -1815,13 +1876,13 @@
       <c r="D63" s="1">
         <v>0.114799</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="18">
         <v>8.7000000000000001E-5</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="19">
         <v>0.11581051496018022</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="11">
         <f t="shared" si="1"/>
         <v>9.245149601802144E-4</v>
       </c>
@@ -1834,13 +1895,13 @@
       <c r="D64" s="1">
         <v>0.36002800000000001</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="18">
         <v>3.2499999999999999E-4</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="19">
         <v>0.36006708099043105</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1854,38 +1915,46 @@
       <c r="D65" s="2">
         <v>1.258316</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="20">
         <v>2.542E-3</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="23">
         <v>1.2444595976815547</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G65" s="13">
         <f>IF(F65&gt;D65+E65,F65-(D65+E65),IF(F65&lt;D65-E65,(D65-E65)-F65,0))</f>
         <v>1.1314402318445271E-2</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="6"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="5"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="17"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="14"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="16"/>
+      <c r="D67" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
@@ -1897,13 +1966,13 @@
       <c r="D68" s="1">
         <v>4197.6031750000002</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="18">
         <v>15.407437</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="19">
         <v>4195.3999999999996</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G68" s="11">
         <f>IF(F68&gt;D68+E68,F68-(D68+E68),IF(F68&lt;D68-E68,(D68-E68)-F68,0))</f>
         <v>0</v>
       </c>
@@ -1916,13 +1985,13 @@
       <c r="D69" s="1">
         <v>2876.6507940000001</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="18">
         <v>12.666062999999999</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="19">
         <v>2886.5</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G69" s="11">
         <f t="shared" ref="G69:G79" si="2">IF(F69&gt;D69+E69,F69-(D69+E69),IF(F69&lt;D69-E69,(D69-E69)-F69,0))</f>
         <v>0</v>
       </c>
@@ -1935,13 +2004,13 @@
       <c r="D70" s="1">
         <v>1290.619048</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="18">
         <v>8.3139489999999991</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="19">
         <v>1287.3</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1954,13 +2023,13 @@
       <c r="D71" s="1">
         <v>345.69841300000002</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="18">
         <v>5.0334070000000004</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="19">
         <v>344.2</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G71" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1975,13 +2044,13 @@
       <c r="D72" s="1">
         <v>1461.936508</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="18">
         <v>8.7563999999999993</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="19">
         <v>1459.7</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G72" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1994,13 +2063,13 @@
       <c r="D73" s="1">
         <v>863.85714299999995</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="18">
         <v>6.4948139999999999</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="19">
         <v>863.3</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G73" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2013,13 +2082,13 @@
       <c r="D74" s="1">
         <v>446.74603200000001</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="18">
         <v>5.2210279999999996</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="19">
         <v>447.8</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G74" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2032,13 +2101,13 @@
       <c r="D75" s="1">
         <v>85.904762000000005</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="18">
         <v>2.404471</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="19">
         <v>86.6</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G75" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2053,13 +2122,13 @@
       <c r="D76" s="1">
         <v>3091.8412699999999</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="18">
         <v>14.157658</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="19">
         <v>4122.1000000000004</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G76" s="11">
         <f t="shared" si="2"/>
         <v>1016.1010720000004</v>
       </c>
@@ -2072,13 +2141,13 @@
       <c r="D77" s="1">
         <v>2123.7777780000001</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="18">
         <v>10.841065</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="19">
         <v>2441.3000000000002</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G77" s="11">
         <f t="shared" si="2"/>
         <v>306.68115699999998</v>
       </c>
@@ -2091,48 +2160,51 @@
       <c r="D78" s="1">
         <v>952.07936500000005</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="18">
         <v>8.0800520000000002</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="19">
         <v>1271.5</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G78" s="11">
         <f t="shared" si="2"/>
         <v>311.34058299999992</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-      <c r="B79" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="1">
+      <c r="A79" s="2"/>
+      <c r="B79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="2">
         <v>239.12698399999999</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="20">
         <v>3.8034729999999999</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="23">
         <v>241.9</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G79" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E81" s="19"/>
+      <c r="E81" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="G35:G43"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A66:C66"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F35:F43"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F41:F43"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G1048576">
+  <conditionalFormatting sqref="G3:G52 G54:G66 G68:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
@@ -2140,4 +2212,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B1F31B-0310-45D2-9097-D6473BFE4732}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>76050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>60520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>22795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/validazione.xlsx
+++ b/data/validazione.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{AB1EB067-6F4B-4DC1-ABA1-DBB061550504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33B36889-CB96-410E-8B8B-F83E026479B5}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="13_ncr:1_{AB1EB067-6F4B-4DC1-ABA1-DBB061550504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8DDD61F-2960-4757-9327-5429041D870A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="ABO Compatible" sheetId="6" r:id="rId1"/>
-    <sheet name="Foglio1" sheetId="7" r:id="rId2"/>
+    <sheet name="Foglio2" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="28">
   <si>
     <t>AB</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Critical</t>
-  </si>
-  <si>
-    <t>Average number of patients in the waiting list</t>
   </si>
   <si>
     <t>Average delay in the waiting list</t>
@@ -115,6 +112,15 @@
   </si>
   <si>
     <t>Average number of reneges in the activation center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transplant </t>
+  </si>
+  <si>
+    <t>Average number of transplants</t>
+  </si>
+  <si>
+    <t>Rejection probability</t>
   </si>
 </sst>
 </file>
@@ -292,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -340,6 +346,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -671,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B0CFC0-6B65-4A53-A15E-ECBF83434F62}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -682,14 +691,14 @@
     <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="17" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -700,28 +709,28 @@
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -730,18 +739,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="1">
-        <v>16.428571000000002</v>
+        <v>16.603175</v>
       </c>
       <c r="E3" s="18">
-        <v>1.0975079999999999</v>
+        <v>1.137626</v>
       </c>
       <c r="F3" s="19">
         <v>17.899999999999999</v>
       </c>
       <c r="G3" s="11">
         <f>IF(F3&gt;D3+E3,F3-(D3+E3),IF(F3&lt;D3-E3,(D3-E3)-F3,0))</f>
-        <v>0.37392099999999573</v>
-      </c>
+        <v>0.15919899999999743</v>
+      </c>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -749,18 +759,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>12455.412698</v>
+        <v>12453.269840999999</v>
       </c>
       <c r="E4" s="18">
-        <v>24.133735000000001</v>
+        <v>24.070218000000001</v>
       </c>
       <c r="F4" s="19">
         <v>12987.4</v>
       </c>
       <c r="G4" s="11">
         <f t="shared" ref="G4:G33" si="0">IF(F4&gt;D4+E4,F4-(D4+E4),IF(F4&lt;D4-E4,(D4-E4)-F4,0))</f>
-        <v>507.85356700000011</v>
-      </c>
+        <v>510.05994099999953</v>
+      </c>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -771,18 +782,19 @@
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>9</v>
+        <v>9.6031750000000002</v>
       </c>
       <c r="E5" s="18">
-        <v>0.76093699999999997</v>
+        <v>0.86244500000000002</v>
       </c>
       <c r="F5" s="19">
         <v>10</v>
       </c>
       <c r="G5" s="11">
         <f t="shared" si="0"/>
-        <v>0.2390629999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -790,18 +802,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>8186.3492059999999</v>
+        <v>8195.793651</v>
       </c>
       <c r="E6" s="18">
-        <v>21.310804999999998</v>
+        <v>20.996456999999999</v>
       </c>
       <c r="F6" s="19">
         <v>8623</v>
       </c>
       <c r="G6" s="11">
         <f t="shared" si="0"/>
-        <v>415.33998900000006</v>
-      </c>
+        <v>406.20989200000076</v>
+      </c>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -812,10 +825,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="1">
-        <v>5.2063490000000003</v>
+        <v>5.4444439999999998</v>
       </c>
       <c r="E7" s="18">
-        <v>0.69068700000000005</v>
+        <v>0.64570499999999997</v>
       </c>
       <c r="F7" s="19">
         <v>5</v>
@@ -824,6 +837,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -831,18 +845,19 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>3783.3015869999999</v>
+        <v>3782</v>
       </c>
       <c r="E8" s="18">
-        <v>18.172394000000001</v>
+        <v>18.983803999999999</v>
       </c>
       <c r="F8" s="19">
         <v>3939</v>
       </c>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
-        <v>137.52601899999991</v>
-      </c>
+        <v>138.01619600000004</v>
+      </c>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -853,10 +868,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>1.6825399999999999</v>
+        <v>1.730159</v>
       </c>
       <c r="E9" s="18">
-        <v>0.37525799999999998</v>
+        <v>0.387017</v>
       </c>
       <c r="F9" s="19">
         <v>1.5</v>
@@ -865,6 +880,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -872,22 +888,23 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>986.38095199999998</v>
+        <v>985.65079400000002</v>
       </c>
       <c r="E10" s="18">
-        <v>7.0633670000000004</v>
+        <v>6.6886999999999999</v>
       </c>
       <c r="F10" s="19">
         <v>993.6</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>0.15568100000007234</v>
-      </c>
+        <v>1.2605059999999639</v>
+      </c>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -896,17 +913,17 @@
         <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>3.1746000000000003E-2</v>
+        <v>1.5873000000000002E-2</v>
       </c>
       <c r="E11" s="18">
-        <v>4.4509E-2</v>
+        <v>3.1730000000000001E-2</v>
       </c>
       <c r="F11" s="19">
         <v>1.5</v>
       </c>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>1.423745</v>
+        <v>1.4523969999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -915,10 +932,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>941.07936500000005</v>
+        <v>932.88888899999995</v>
       </c>
       <c r="E12" s="18">
-        <v>7.858225</v>
+        <v>7.2597379999999996</v>
       </c>
       <c r="F12" s="19">
         <v>938.3</v>
@@ -956,17 +973,17 @@
         <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>475.39682499999998</v>
+        <v>469.39682499999998</v>
       </c>
       <c r="E14" s="18">
-        <v>5.5714769999999998</v>
+        <v>5.6524140000000003</v>
       </c>
       <c r="F14" s="19">
         <v>469.5</v>
       </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>0.32534799999996267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -997,10 +1014,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>282.82539700000001</v>
+        <v>285.22222199999999</v>
       </c>
       <c r="E16" s="18">
-        <v>3.6826840000000001</v>
+        <v>4.7695509999999999</v>
       </c>
       <c r="F16" s="19">
         <v>285.60000000000002</v>
@@ -1038,10 +1055,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>42.126984</v>
+        <v>42.507936999999998</v>
       </c>
       <c r="E18" s="18">
-        <v>1.330721</v>
+        <v>1.5727</v>
       </c>
       <c r="F18" s="19">
         <v>42.9</v>
@@ -1053,7 +1070,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1062,17 +1079,17 @@
         <v>6</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>4.7619000000000002E-2</v>
       </c>
       <c r="E19" s="18">
-        <v>3.1730000000000001E-2</v>
+        <v>5.4064000000000001E-2</v>
       </c>
       <c r="F19" s="19">
         <v>2.5</v>
       </c>
       <c r="G19" s="11">
         <f t="shared" si="0"/>
-        <v>2.46827</v>
+        <v>2.398317</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1081,10 +1098,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>1435.7777779999999</v>
+        <v>1439.68254</v>
       </c>
       <c r="E20" s="18">
-        <v>7.9132059999999997</v>
+        <v>9.047034</v>
       </c>
       <c r="F20" s="19">
         <v>1439.5</v>
@@ -1122,10 +1139,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>818.57142899999997</v>
+        <v>819.936508</v>
       </c>
       <c r="E22" s="18">
-        <v>9.0237049999999996</v>
+        <v>7.9165359999999998</v>
       </c>
       <c r="F22" s="19">
         <v>818.7</v>
@@ -1163,10 +1180,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="1">
-        <v>429.76190500000001</v>
+        <v>429.90476200000001</v>
       </c>
       <c r="E24" s="18">
-        <v>4.6620730000000004</v>
+        <v>4.5977110000000003</v>
       </c>
       <c r="F24" s="19">
         <v>430.7</v>
@@ -1204,10 +1221,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="1">
-        <v>74.984127000000001</v>
+        <v>74.444444000000004</v>
       </c>
       <c r="E26" s="18">
-        <v>2.1778460000000002</v>
+        <v>2.133051</v>
       </c>
       <c r="F26" s="19">
         <v>76.099999999999994</v>
@@ -1219,7 +1236,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1228,17 +1245,17 @@
         <v>6</v>
       </c>
       <c r="D27" s="1">
-        <v>21.770078000000002</v>
+        <v>21.603562</v>
       </c>
       <c r="E27" s="18">
-        <v>0.15081600000000001</v>
+        <v>0.25826100000000002</v>
       </c>
       <c r="F27" s="19">
         <v>20.391061452513966</v>
       </c>
       <c r="G27" s="11">
         <f t="shared" si="0"/>
-        <v>1.2282005474860362</v>
+        <v>0.95423954748603279</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1247,17 +1264,17 @@
         <v>5</v>
       </c>
       <c r="D28" s="1">
-        <v>2.9321E-2</v>
+        <v>2.9323999999999999E-2</v>
       </c>
       <c r="E28" s="18">
-        <v>1.0399999999999999E-4</v>
+        <v>6.9999999999999999E-6</v>
       </c>
       <c r="F28" s="19">
         <v>2.8129070045237708E-2</v>
       </c>
       <c r="G28" s="11">
         <f t="shared" si="0"/>
-        <v>1.0879299547622914E-3</v>
+        <v>1.1879299547622908E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1269,17 +1286,17 @@
         <v>6</v>
       </c>
       <c r="D29" s="1">
-        <v>40.112430000000003</v>
+        <v>39.742883999999997</v>
       </c>
       <c r="E29" s="18">
-        <v>0.397978</v>
+        <v>0.54322199999999998</v>
       </c>
       <c r="F29" s="19">
         <v>36.5</v>
       </c>
       <c r="G29" s="11">
         <f t="shared" si="0"/>
-        <v>3.2144520000000014</v>
+        <v>2.6996619999999965</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1288,17 +1305,17 @@
         <v>5</v>
       </c>
       <c r="D30" s="1">
-        <v>4.4674999999999999E-2</v>
+        <v>4.4595000000000003E-2</v>
       </c>
       <c r="E30" s="18">
-        <v>2.9399999999999999E-4</v>
+        <v>3.3000000000000003E-5</v>
       </c>
       <c r="F30" s="19">
         <v>4.2378785064090665E-2</v>
       </c>
       <c r="G30" s="11">
         <f t="shared" si="0"/>
-        <v>2.0022149359093314E-3</v>
+        <v>2.1832149359093389E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1310,17 +1327,17 @@
         <v>6</v>
       </c>
       <c r="D31" s="1">
-        <v>83.044183000000004</v>
+        <v>80.481656999999998</v>
       </c>
       <c r="E31" s="18">
-        <v>3.098754</v>
+        <v>10.729193</v>
       </c>
       <c r="F31" s="19">
         <v>73</v>
       </c>
       <c r="G31" s="11">
         <f t="shared" si="0"/>
-        <v>6.9454290000000043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1329,17 +1346,17 @@
         <v>5</v>
       </c>
       <c r="D32" s="1">
-        <v>9.6095E-2</v>
+        <v>9.6160999999999996E-2</v>
       </c>
       <c r="E32" s="18">
-        <v>1.9599999999999999E-4</v>
+        <v>1.03E-4</v>
       </c>
       <c r="F32" s="19">
         <v>9.2771451809678718E-2</v>
       </c>
       <c r="G32" s="11">
         <f t="shared" si="0"/>
-        <v>3.1275481903212804E-3</v>
+        <v>3.2865481903212729E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1351,17 +1368,17 @@
         <v>6</v>
       </c>
       <c r="D33" s="1">
-        <v>200.179982</v>
+        <v>188.720493</v>
       </c>
       <c r="E33" s="18">
-        <v>7.7822829999999996</v>
+        <v>7.8930550000000004</v>
       </c>
       <c r="F33" s="19">
         <v>243.33333333333337</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="0"/>
-        <v>35.371068333333369</v>
+        <v>46.719785333333363</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1370,22 +1387,22 @@
         <v>5</v>
       </c>
       <c r="D34" s="1">
-        <v>0.36931999999999998</v>
+        <v>0.37013000000000001</v>
       </c>
       <c r="E34" s="18">
-        <v>3.846E-3</v>
+        <v>5.2400000000000005E-4</v>
       </c>
       <c r="F34" s="19">
         <v>0.3679435483870967</v>
       </c>
       <c r="G34" s="11">
         <f>IF(F34&gt;D34+E34,F34-(D34+E34),IF(F34&lt;D34-E34,(D34-E34)-F34,0))</f>
-        <v>0</v>
+        <v>1.6624516129032929E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1394,7 +1411,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="1">
-        <v>9.9999999999999995E-7</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="E35" s="18">
         <v>0</v>
@@ -1414,10 +1431,10 @@
         <v>5</v>
       </c>
       <c r="D36" s="1">
-        <v>2841.3727509999999</v>
+        <v>2823.2492350000002</v>
       </c>
       <c r="E36" s="18">
-        <v>409.66006700000003</v>
+        <v>406.83753200000001</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="24"/>
@@ -1431,7 +1448,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="1">
-        <v>1.9999999999999999E-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="E37" s="18">
         <v>0</v>
@@ -1445,10 +1462,10 @@
         <v>5</v>
       </c>
       <c r="D38" s="1">
-        <v>2702.361081</v>
+        <v>2696.1022630000002</v>
       </c>
       <c r="E38" s="18">
-        <v>391.2876</v>
+        <v>389.06899099999998</v>
       </c>
       <c r="F38" s="28">
         <f>4*365</f>
@@ -1479,10 +1496,10 @@
         <v>5</v>
       </c>
       <c r="D40" s="1">
-        <v>2803.6823370000002</v>
+        <v>2799.358577</v>
       </c>
       <c r="E40" s="18">
-        <v>405.61871300000001</v>
+        <v>403.90938699999998</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="24"/>
@@ -1513,10 +1530,10 @@
         <v>5</v>
       </c>
       <c r="D42" s="1">
-        <v>6.6198899999999998</v>
+        <v>123.736752</v>
       </c>
       <c r="E42" s="18">
-        <v>0.52680000000000005</v>
+        <v>26.468942999999999</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="24"/>
@@ -1525,686 +1542,914 @@
       <c r="A43" s="1"/>
       <c r="D43" s="1">
         <f>AVERAGE(D35:D42)</f>
-        <v>1044.2545077500001</v>
+        <v>1055.3058541250002</v>
       </c>
       <c r="E43" s="19">
         <f>AVERAGE(E35:E42)</f>
-        <v>150.88664750000001</v>
+        <v>153.28560662500001</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
         <v>3</v>
       </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="1">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="E44" s="18">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="1">
-        <v>74599.153778000007</v>
-      </c>
-      <c r="E45" s="18">
-        <v>11275.159146</v>
-      </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
       <c r="D46" s="1">
-        <v>2.8E-5</v>
+        <v>4060.3968249999998</v>
       </c>
       <c r="E46" s="18">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="11"/>
+        <v>14.273114</v>
+      </c>
+      <c r="F46" s="19">
+        <v>4060.6</v>
+      </c>
+      <c r="G46" s="11">
+        <f>IF(F46&gt;D46+E46,F46-(D46+E46),IF(F46&lt;D46-E46,(D46-E46)-F46,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="C47" t="s">
-        <v>5</v>
+      <c r="B47" t="s">
+        <v>2</v>
       </c>
       <c r="D47" s="1">
-        <v>51317.041239999999</v>
+        <v>3166.8412699999999</v>
       </c>
       <c r="E47" s="18">
-        <v>7764.6596410000002</v>
-      </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="11"/>
+        <v>14.345655000000001</v>
+      </c>
+      <c r="F47" s="19">
+        <v>3151.7</v>
+      </c>
+      <c r="G47" s="11">
+        <f t="shared" ref="G47:G56" si="1">IF(F47&gt;D47+E47,F47-(D47+E47),IF(F47&lt;D47-E47,(D47-E47)-F47,0))</f>
+        <v>0.79561499999999796</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>1</v>
       </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>1013.555556</v>
       </c>
       <c r="E48" s="18">
-        <v>0</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8.5249260000000007</v>
+      </c>
+      <c r="F48" s="19">
+        <v>1013.7</v>
+      </c>
+      <c r="G48" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="C49" t="s">
-        <v>5</v>
+      <c r="B49" t="s">
+        <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>22624.879687000001</v>
+        <v>289.79365100000001</v>
       </c>
       <c r="E49" s="18">
-        <v>3392.401691</v>
-      </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
+        <v>4.1700710000000001</v>
+      </c>
+      <c r="F49" s="19">
+        <v>293.3</v>
+      </c>
+      <c r="G49" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>3736.2698409999998</v>
       </c>
       <c r="E50" s="18">
-        <v>0</v>
-      </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="2">
-        <v>731.49029099999996</v>
-      </c>
-      <c r="E51" s="20">
-        <v>70.460891000000004</v>
-      </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="13"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="14"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15.112171999999999</v>
+      </c>
+      <c r="F50" s="19">
+        <v>3742.6</v>
+      </c>
+      <c r="G50" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1625.1746029999999</v>
+      </c>
+      <c r="E51" s="18">
+        <v>10.130330000000001</v>
+      </c>
+      <c r="F51" s="19">
+        <v>1626.7</v>
+      </c>
+      <c r="G51" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>490.25396799999999</v>
+      </c>
+      <c r="E52" s="18">
+        <v>5.261431</v>
+      </c>
+      <c r="F52" s="19">
+        <v>487.2</v>
+      </c>
+      <c r="G52" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>74.714286000000001</v>
+      </c>
+      <c r="E53" s="18">
+        <v>2.0154990000000002</v>
+      </c>
+      <c r="F53" s="19">
+        <v>75.5</v>
+      </c>
+      <c r="G53" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="1">
-        <v>4060.3968249999998</v>
+        <v>9.0015999999999999E-2</v>
       </c>
       <c r="E54" s="18">
-        <v>14.208821</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="F54" s="19">
-        <v>4060.6</v>
+        <v>8.9888193862975932E-2</v>
       </c>
       <c r="G54" s="11">
         <f>IF(F54&gt;D54+E54,F54-(D54+E54),IF(F54&lt;D54-E54,(D54-E54)-F54,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7.8806137024073353E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="1">
-        <v>3166.8412699999999</v>
+        <v>0.114798</v>
       </c>
       <c r="E55" s="18">
-        <v>14.340092</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="F55" s="19">
-        <v>3151.7</v>
+        <v>0.11581051496018022</v>
       </c>
       <c r="G55" s="11">
-        <f t="shared" ref="G55:G64" si="1">IF(F55&gt;D55+E55,F55-(D55+E55),IF(F55&lt;D55-E55,(D55-E55)-F55,0))</f>
-        <v>0.80117800000016359</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>9.255149601802154E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="1">
-        <v>1013.555556</v>
+        <v>0.36002899999999999</v>
       </c>
       <c r="E56" s="18">
-        <v>8.5236059999999991</v>
+        <v>3.2600000000000001E-4</v>
       </c>
       <c r="F56" s="19">
-        <v>1013.7</v>
+        <v>0.36006708099043105</v>
       </c>
       <c r="G56" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1">
-        <v>289.79365100000001</v>
-      </c>
-      <c r="E57" s="18">
-        <v>4.1658980000000003</v>
-      </c>
-      <c r="F57" s="19">
-        <v>293.3</v>
-      </c>
-      <c r="G57" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="2">
+        <v>1.2583150000000001</v>
+      </c>
+      <c r="E57" s="20">
+        <v>2.5439999999999998E-3</v>
+      </c>
+      <c r="F57" s="23">
+        <v>1.2444595976815547</v>
+      </c>
+      <c r="G57" s="13">
+        <f>IF(F57&gt;D57+E57,F57-(D57+E57),IF(F57&lt;D57-E57,(D57-E57)-F57,0))</f>
+        <v>1.1311402318445296E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59"/>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="1">
-        <v>3736.3174600000002</v>
-      </c>
-      <c r="E58" s="18">
-        <v>15.111469</v>
-      </c>
-      <c r="F58" s="19">
-        <v>3742.6</v>
-      </c>
-      <c r="G58" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" t="s">
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1">
+        <v>16.492063000000002</v>
+      </c>
+      <c r="E60" s="18">
+        <v>1.103234</v>
+      </c>
+      <c r="F60" s="21">
+        <v>10</v>
+      </c>
+      <c r="G60" s="11">
+        <f>IF(F60&gt;D60+E60,F60-(D60+E60),IF(F60&lt;D60-E60,(D60-E60)-F60,0))</f>
+        <v>5.3888290000000012</v>
+      </c>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1">
+        <v>6744.8095240000002</v>
+      </c>
+      <c r="E61" s="18">
+        <v>24.184557999999999</v>
+      </c>
+      <c r="F61" s="19">
+        <v>7605</v>
+      </c>
+      <c r="G61" s="11">
+        <f t="shared" ref="G61:G67" si="2">IF(F61&gt;D61+E61,F61-(D61+E61),IF(F61&lt;D61-E61,(D61-E61)-F61,0))</f>
+        <v>836.00591799999984</v>
+      </c>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="1">
-        <v>1625.142857</v>
-      </c>
-      <c r="E59" s="18">
-        <v>10.164438000000001</v>
-      </c>
-      <c r="F59" s="19">
-        <v>1626.7</v>
-      </c>
-      <c r="G59" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
-        <v>490.30158699999998</v>
-      </c>
-      <c r="E60" s="18">
-        <v>5.2621440000000002</v>
-      </c>
-      <c r="F60" s="19">
-        <v>487.2</v>
-      </c>
-      <c r="G60" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1">
-        <v>74.746032</v>
-      </c>
-      <c r="E61" s="18">
-        <v>1.8059069999999999</v>
-      </c>
-      <c r="F61" s="19">
-        <v>75.5</v>
-      </c>
-      <c r="G61" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3</v>
+      <c r="C62" t="s">
+        <v>6</v>
       </c>
       <c r="D62" s="1">
-        <v>9.0015999999999999E-2</v>
+        <v>9.2222220000000004</v>
       </c>
       <c r="E62" s="18">
-        <v>4.8999999999999998E-5</v>
+        <v>0.82473600000000002</v>
       </c>
       <c r="F62" s="19">
-        <v>8.9888193862975932E-2</v>
+        <v>6</v>
       </c>
       <c r="G62" s="11">
-        <f>IF(F62&gt;D62+E62,F62-(D62+E62),IF(F62&lt;D62-E62,(D62-E62)-F62,0))</f>
-        <v>7.8806137024073353E-5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.3974860000000007</v>
+      </c>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" t="s">
-        <v>2</v>
+      <c r="C63" t="s">
+        <v>5</v>
       </c>
       <c r="D63" s="1">
-        <v>0.114799</v>
+        <v>4698.9206350000004</v>
       </c>
       <c r="E63" s="18">
-        <v>8.7000000000000001E-5</v>
+        <v>24.998566</v>
       </c>
       <c r="F63" s="19">
-        <v>0.11581051496018022</v>
+        <v>6052</v>
       </c>
       <c r="G63" s="11">
-        <f t="shared" si="1"/>
-        <v>9.245149601802144E-4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1328.0807989999994</v>
+      </c>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" t="s">
         <v>1</v>
       </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
       <c r="D64" s="1">
-        <v>0.36002800000000001</v>
+        <v>5.1111110000000002</v>
       </c>
       <c r="E64" s="18">
-        <v>3.2499999999999999E-4</v>
+        <v>0.63826799999999995</v>
       </c>
       <c r="F64" s="19">
-        <v>0.36006708099043105</v>
+        <v>4.3</v>
       </c>
       <c r="G64" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="2">
-        <v>1.258316</v>
-      </c>
-      <c r="E65" s="20">
-        <v>2.542E-3</v>
-      </c>
-      <c r="F65" s="23">
-        <v>1.2444595976815547</v>
-      </c>
-      <c r="G65" s="13">
-        <f>IF(F65&gt;D65+E65,F65-(D65+E65),IF(F65&lt;D65-E65,(D65-E65)-F65,0))</f>
-        <v>1.1314402318445271E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="14"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0.1728430000000003</v>
+      </c>
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2056.619048</v>
+      </c>
+      <c r="E65" s="18">
+        <v>17.311567</v>
+      </c>
+      <c r="F65" s="19">
+        <v>2279.5</v>
+      </c>
+      <c r="G65" s="11">
+        <f t="shared" si="2"/>
+        <v>205.56938499999978</v>
+      </c>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1.9523809999999999</v>
+      </c>
+      <c r="E66" s="18">
+        <v>0.41067100000000001</v>
+      </c>
+      <c r="F66" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="G66" s="11">
+        <f t="shared" si="2"/>
+        <v>0.64170999999999989</v>
+      </c>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1">
+        <v>908.38095199999998</v>
+      </c>
+      <c r="E67" s="18">
+        <v>17.014914000000001</v>
+      </c>
+      <c r="F67" s="19">
+        <v>835</v>
+      </c>
+      <c r="G67" s="11">
+        <f t="shared" si="2"/>
+        <v>56.366038000000003</v>
+      </c>
+      <c r="H67" s="10"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
       </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
       <c r="D68" s="1">
-        <v>4197.6031750000002</v>
-      </c>
-      <c r="E68" s="18">
-        <v>15.407437</v>
-      </c>
-      <c r="F68" s="19">
-        <v>4195.3999999999996</v>
+        <v>0.12582781000000001</v>
+      </c>
+      <c r="E68" s="18"/>
+      <c r="F68" s="28">
+        <v>0.13</v>
       </c>
       <c r="G68" s="11">
-        <f>IF(F68&gt;D68+E68,F68-(D68+E68),IF(F68&lt;D68-E68,(D68-E68)-F68,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+        <f>ABS(AVERAGE(D$68:D$69)-F$68)</f>
+        <v>2.0401649999999827E-3</v>
+      </c>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" t="s">
-        <v>2</v>
+      <c r="C69" t="s">
+        <v>5</v>
       </c>
       <c r="D69" s="1">
-        <v>2876.6507940000001</v>
-      </c>
-      <c r="E69" s="18">
-        <v>12.666062999999999</v>
-      </c>
-      <c r="F69" s="19">
-        <v>2886.5</v>
-      </c>
+        <v>0.13009186</v>
+      </c>
+      <c r="E69" s="18"/>
+      <c r="F69" s="28"/>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G79" si="2">IF(F69&gt;D69+E69,F69-(D69+E69),IF(F69&lt;D69-E69,(D69-E69)-F69,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G69" si="3">ABS(AVERAGE(D$68:D$69)-F$68)</f>
+        <v>2.0401649999999827E-3</v>
+      </c>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="E70" s="18"/>
+      <c r="F70" s="28">
+        <v>0.13</v>
+      </c>
+      <c r="G70" s="11">
+        <f>ABS(AVERAGE(D$70:D$71)-F$70)</f>
+        <v>1.3410654999999994E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.13057131</v>
+      </c>
+      <c r="E71" s="18"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="11">
+        <f>ABS(AVERAGE(D$70:D$71)-F$70)</f>
+        <v>1.3410654999999994E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" t="s">
         <v>1</v>
       </c>
-      <c r="D70" s="1">
-        <v>1290.619048</v>
-      </c>
-      <c r="E70" s="18">
-        <v>8.3139489999999991</v>
-      </c>
-      <c r="F70" s="19">
-        <v>1287.3</v>
-      </c>
-      <c r="G70" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-      <c r="B71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="1">
-        <v>345.69841300000002</v>
-      </c>
-      <c r="E71" s="18">
-        <v>5.0334070000000004</v>
-      </c>
-      <c r="F71" s="19">
-        <v>344.2</v>
-      </c>
-      <c r="G71" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" t="s">
-        <v>3</v>
+      <c r="C72" t="s">
+        <v>6</v>
       </c>
       <c r="D72" s="1">
-        <v>1461.936508</v>
-      </c>
-      <c r="E72" s="18">
-        <v>8.7563999999999993</v>
-      </c>
-      <c r="F72" s="19">
-        <v>1459.7</v>
+        <v>0.14782609000000002</v>
+      </c>
+      <c r="E72" s="18"/>
+      <c r="F72" s="28">
+        <v>0.13</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+        <f>ABS(AVERAGE(D$72:D$73)-F$72)</f>
+        <v>8.7886400000000142E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" t="s">
-        <v>2</v>
+      <c r="C73" t="s">
+        <v>5</v>
       </c>
       <c r="D73" s="1">
-        <v>863.85714299999995</v>
-      </c>
-      <c r="E73" s="18">
-        <v>6.4948139999999999</v>
-      </c>
-      <c r="F73" s="19">
-        <v>863.3</v>
-      </c>
+        <v>0.12975118999999999</v>
+      </c>
+      <c r="E73" s="18"/>
+      <c r="F73" s="28"/>
       <c r="G73" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+        <f>ABS(AVERAGE(D$72:D$73)-F$72)</f>
+        <v>8.7886400000000142E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.10810810999999999</v>
+      </c>
+      <c r="E74" s="18"/>
+      <c r="F74" s="28">
+        <v>0.13</v>
+      </c>
+      <c r="G74" s="11">
+        <f>ABS(AVERAGE(D$74:D$75)-F$74)</f>
+        <v>1.1089679999999991E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.12971253000000002</v>
+      </c>
+      <c r="E75" s="18"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="11">
+        <f>ABS(AVERAGE(D$74:D$75)-F$74)</f>
+        <v>1.1089679999999991E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>4197.6031750000002</v>
+      </c>
+      <c r="E78" s="18">
+        <v>15.407437</v>
+      </c>
+      <c r="F78" s="19">
+        <v>4195.3999999999996</v>
+      </c>
+      <c r="G78" s="11">
+        <f>IF(F78&gt;D78+E78,F78-(D78+E78),IF(F78&lt;D78-E78,(D78-E78)-F78,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2876.6507940000001</v>
+      </c>
+      <c r="E79" s="18">
+        <v>12.666062999999999</v>
+      </c>
+      <c r="F79" s="19">
+        <v>2886.5</v>
+      </c>
+      <c r="G79" s="11">
+        <f t="shared" ref="G79:G89" si="4">IF(F79&gt;D79+E79,F79-(D79+E79),IF(F79&lt;D79-E79,(D79-E79)-F79,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" t="s">
         <v>1</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D80" s="1">
+        <v>1290.619048</v>
+      </c>
+      <c r="E80" s="18">
+        <v>8.3139489999999991</v>
+      </c>
+      <c r="F80" s="19">
+        <v>1287.3</v>
+      </c>
+      <c r="G80" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>345.69841300000002</v>
+      </c>
+      <c r="E81" s="18">
+        <v>5.0334070000000004</v>
+      </c>
+      <c r="F81" s="19">
+        <v>344.2</v>
+      </c>
+      <c r="G81" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1461.936508</v>
+      </c>
+      <c r="E82" s="18">
+        <v>8.7563999999999993</v>
+      </c>
+      <c r="F82" s="19">
+        <v>1459.7</v>
+      </c>
+      <c r="G82" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>863.85714299999995</v>
+      </c>
+      <c r="E83" s="18">
+        <v>6.4948139999999999</v>
+      </c>
+      <c r="F83" s="19">
+        <v>863.3</v>
+      </c>
+      <c r="G83" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
         <v>446.74603200000001</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E84" s="18">
         <v>5.2210279999999996</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F84" s="19">
         <v>447.8</v>
       </c>
-      <c r="G74" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-      <c r="B75" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="1">
+      <c r="G84" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
         <v>85.904762000000005</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E85" s="18">
         <v>2.404471</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F85" s="19">
         <v>86.6</v>
       </c>
-      <c r="G75" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="G85" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="1">
-        <v>3091.8412699999999</v>
-      </c>
-      <c r="E76" s="18">
-        <v>14.157658</v>
-      </c>
-      <c r="F76" s="19">
+      <c r="D86" s="1">
+        <v>3057.2380950000002</v>
+      </c>
+      <c r="E86" s="18">
+        <v>14.339700000000001</v>
+      </c>
+      <c r="F86" s="19">
         <v>4122.1000000000004</v>
       </c>
-      <c r="G76" s="11">
-        <f t="shared" si="2"/>
-        <v>1016.1010720000004</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="B77" t="s">
+      <c r="G86" s="11">
+        <f t="shared" si="4"/>
+        <v>1050.5222050000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="1">
-        <v>2123.7777780000001</v>
-      </c>
-      <c r="E77" s="18">
-        <v>10.841065</v>
-      </c>
-      <c r="F77" s="19">
+      <c r="D87" s="1">
+        <v>2099.380952</v>
+      </c>
+      <c r="E87" s="18">
+        <v>10.608412</v>
+      </c>
+      <c r="F87" s="19">
         <v>2441.3000000000002</v>
       </c>
-      <c r="G77" s="11">
-        <f t="shared" si="2"/>
-        <v>306.68115699999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
-      <c r="B78" t="s">
+      <c r="G87" s="11">
+        <f t="shared" si="4"/>
+        <v>331.31063600000016</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="1">
-        <v>952.07936500000005</v>
-      </c>
-      <c r="E78" s="18">
-        <v>8.0800520000000002</v>
-      </c>
-      <c r="F78" s="19">
+      <c r="D88" s="1">
+        <v>941.90476200000001</v>
+      </c>
+      <c r="E88" s="18">
+        <v>8.3995540000000002</v>
+      </c>
+      <c r="F88" s="19">
         <v>1271.5</v>
       </c>
-      <c r="G78" s="11">
-        <f t="shared" si="2"/>
-        <v>311.34058299999992</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
-      <c r="B79" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="2">
-        <v>239.12698399999999</v>
-      </c>
-      <c r="E79" s="20">
-        <v>3.8034729999999999</v>
-      </c>
-      <c r="F79" s="23">
+      <c r="G88" s="11">
+        <f t="shared" si="4"/>
+        <v>321.19568400000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="2">
+        <v>239.079365</v>
+      </c>
+      <c r="E89" s="20">
+        <v>4.106077</v>
+      </c>
+      <c r="F89" s="23">
         <v>241.9</v>
       </c>
-      <c r="G79" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E81" s="16"/>
+      <c r="G89" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E91" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
     <mergeCell ref="G35:G43"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A76:C76"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F35:F37"/>
     <mergeCell ref="F38:F40"/>
     <mergeCell ref="F41:F43"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F74:F75"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G52 G54:G66 G68:G1048576">
+  <conditionalFormatting sqref="G3:G44 G46:G57 G60:G76 G78:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
@@ -2215,56 +2460,337 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B1F31B-0310-45D2-9097-D6473BFE4732}">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAA4144-995C-413A-BEAF-9F8542301A7D}">
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="M1" sqref="M1:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>7</v>
+      </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>11</v>
+      </c>
+      <c r="E1">
+        <v>8</v>
+      </c>
+      <c r="F1">
+        <v>8</v>
+      </c>
+      <c r="G1">
+        <v>17</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>18</v>
+      </c>
+      <c r="J1">
+        <v>12</v>
+      </c>
+      <c r="L1">
+        <f>SUM(A1:J1)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="M1">
+        <f>L1/10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>9814</v>
+      </c>
+      <c r="B2">
+        <v>8761</v>
+      </c>
+      <c r="C2">
+        <v>8280</v>
+      </c>
+      <c r="D2">
+        <v>7896</v>
+      </c>
+      <c r="E2">
+        <v>7427</v>
+      </c>
+      <c r="F2">
+        <v>6944</v>
+      </c>
+      <c r="G2">
+        <v>6876</v>
+      </c>
+      <c r="H2">
+        <v>6588</v>
+      </c>
+      <c r="I2">
+        <v>6785</v>
+      </c>
+      <c r="J2">
+        <v>6679</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L8" si="0">SUM(A2:J2)</f>
         <v>76050</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="M2">
+        <f t="shared" ref="M2:M9" si="1">L2/10</f>
+        <v>7605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>7614</v>
+      </c>
+      <c r="B4">
+        <v>6801</v>
+      </c>
+      <c r="C4">
+        <v>6506</v>
+      </c>
+      <c r="D4">
+        <v>6367</v>
+      </c>
+      <c r="E4">
+        <v>5863</v>
+      </c>
+      <c r="F4">
+        <v>5699</v>
+      </c>
+      <c r="G4">
+        <v>5526</v>
+      </c>
+      <c r="H4">
+        <v>5439</v>
+      </c>
+      <c r="I4">
+        <v>5422</v>
+      </c>
+      <c r="J4">
+        <v>5283</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
         <v>60520</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>6052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2963</v>
+      </c>
+      <c r="B6">
+        <v>2827</v>
+      </c>
+      <c r="C6">
+        <v>2470</v>
+      </c>
+      <c r="D6">
+        <v>2377</v>
+      </c>
+      <c r="E6">
+        <v>2178</v>
+      </c>
+      <c r="F6">
+        <v>2074</v>
+      </c>
+      <c r="G6">
+        <v>1977</v>
+      </c>
+      <c r="H6">
+        <v>1943</v>
+      </c>
+      <c r="I6">
+        <v>1945</v>
+      </c>
+      <c r="J6">
+        <v>2041</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
         <v>22795</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>2279.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B8">
+        <v>952</v>
+      </c>
+      <c r="C8">
+        <v>896</v>
+      </c>
+      <c r="D8">
+        <v>797</v>
+      </c>
+      <c r="E8">
+        <v>883</v>
+      </c>
+      <c r="F8">
+        <v>728</v>
+      </c>
+      <c r="G8">
+        <v>744</v>
+      </c>
+      <c r="H8">
+        <v>773</v>
+      </c>
+      <c r="I8">
+        <v>746</v>
+      </c>
+      <c r="J8">
+        <v>731</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
         <v>8350</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/validazione.xlsx
+++ b/data/validazione.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="344" documentId="13_ncr:1_{AB1EB067-6F4B-4DC1-ABA1-DBB061550504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8DDD61F-2960-4757-9327-5429041D870A}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="13_ncr:1_{AB1EB067-6F4B-4DC1-ABA1-DBB061550504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9926D1B0-0B38-402D-8764-EDE92EAA2BC3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="ABO Compatible" sheetId="6" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -355,7 +354,27 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -682,18 +701,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B0CFC0-6B65-4A53-A15E-ECBF83434F62}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -739,17 +759,17 @@
         <v>6</v>
       </c>
       <c r="D3" s="1">
-        <v>16.603175</v>
+        <v>16.253968</v>
       </c>
       <c r="E3" s="18">
-        <v>1.137626</v>
+        <v>1.098676</v>
       </c>
       <c r="F3" s="19">
         <v>17.899999999999999</v>
       </c>
       <c r="G3" s="11">
         <f>IF(F3&gt;D3+E3,F3-(D3+E3),IF(F3&lt;D3-E3,(D3-E3)-F3,0))</f>
-        <v>0.15919899999999743</v>
+        <v>0.54735599999999707</v>
       </c>
       <c r="H3" s="10"/>
     </row>
@@ -759,17 +779,17 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>12453.269840999999</v>
+        <v>12493.349206000001</v>
       </c>
       <c r="E4" s="18">
-        <v>24.070218000000001</v>
+        <v>25.255666000000002</v>
       </c>
       <c r="F4" s="19">
         <v>12987.4</v>
       </c>
       <c r="G4" s="11">
         <f t="shared" ref="G4:G33" si="0">IF(F4&gt;D4+E4,F4-(D4+E4),IF(F4&lt;D4-E4,(D4-E4)-F4,0))</f>
-        <v>510.05994099999953</v>
+        <v>468.79512799999975</v>
       </c>
       <c r="H4" s="10"/>
     </row>
@@ -782,10 +802,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>9.6031750000000002</v>
+        <v>9.2380949999999995</v>
       </c>
       <c r="E5" s="18">
-        <v>0.86244500000000002</v>
+        <v>0.84103499999999998</v>
       </c>
       <c r="F5" s="19">
         <v>10</v>
@@ -802,17 +822,17 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>8195.793651</v>
+        <v>8218.9682539999994</v>
       </c>
       <c r="E6" s="18">
-        <v>20.996456999999999</v>
+        <v>22.04101</v>
       </c>
       <c r="F6" s="19">
         <v>8623</v>
       </c>
       <c r="G6" s="11">
         <f t="shared" si="0"/>
-        <v>406.20989200000076</v>
+        <v>381.99073599999974</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -825,10 +845,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="1">
-        <v>5.4444439999999998</v>
+        <v>5.2380950000000004</v>
       </c>
       <c r="E7" s="18">
-        <v>0.64570499999999997</v>
+        <v>0.63118200000000002</v>
       </c>
       <c r="F7" s="19">
         <v>5</v>
@@ -845,17 +865,17 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>3782</v>
+        <v>3790.9206349999999</v>
       </c>
       <c r="E8" s="18">
-        <v>18.983803999999999</v>
+        <v>17.684505000000001</v>
       </c>
       <c r="F8" s="19">
         <v>3939</v>
       </c>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
-        <v>138.01619600000004</v>
+        <v>130.39485999999988</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -871,7 +891,7 @@
         <v>1.730159</v>
       </c>
       <c r="E9" s="18">
-        <v>0.387017</v>
+        <v>0.336086</v>
       </c>
       <c r="F9" s="19">
         <v>1.5</v>
@@ -888,17 +908,17 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>985.65079400000002</v>
+        <v>1017.650794</v>
       </c>
       <c r="E10" s="18">
-        <v>6.6886999999999999</v>
+        <v>36.226958000000003</v>
       </c>
       <c r="F10" s="19">
         <v>993.6</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>1.2605059999999639</v>
+        <v>0</v>
       </c>
       <c r="H10" s="10"/>
     </row>
@@ -913,17 +933,17 @@
         <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>1.5873000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="18">
-        <v>3.1730000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="19">
         <v>1.5</v>
       </c>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>1.4523969999999999</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -932,10 +952,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>932.88888899999995</v>
+        <v>936.53968299999997</v>
       </c>
       <c r="E12" s="18">
-        <v>7.2597379999999996</v>
+        <v>7.9629149999999997</v>
       </c>
       <c r="F12" s="19">
         <v>938.3</v>
@@ -973,10 +993,10 @@
         <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>469.39682499999998</v>
+        <v>475.047619</v>
       </c>
       <c r="E14" s="18">
-        <v>5.6524140000000003</v>
+        <v>5.9495469999999999</v>
       </c>
       <c r="F14" s="19">
         <v>469.5</v>
@@ -1014,10 +1034,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>285.22222199999999</v>
+        <v>283.26984099999999</v>
       </c>
       <c r="E16" s="18">
-        <v>4.7695509999999999</v>
+        <v>3.6116250000000001</v>
       </c>
       <c r="F16" s="19">
         <v>285.60000000000002</v>
@@ -1055,10 +1075,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>42.507936999999998</v>
+        <v>41.079365000000003</v>
       </c>
       <c r="E18" s="18">
-        <v>1.5727</v>
+        <v>2.7796419999999999</v>
       </c>
       <c r="F18" s="19">
         <v>42.9</v>
@@ -1079,17 +1099,17 @@
         <v>6</v>
       </c>
       <c r="D19" s="1">
-        <v>4.7619000000000002E-2</v>
+        <v>1.5873000000000002E-2</v>
       </c>
       <c r="E19" s="18">
-        <v>5.4064000000000001E-2</v>
+        <v>3.1730000000000001E-2</v>
       </c>
       <c r="F19" s="19">
         <v>2.5</v>
       </c>
       <c r="G19" s="11">
         <f t="shared" si="0"/>
-        <v>2.398317</v>
+        <v>2.4523969999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1098,10 +1118,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>1439.68254</v>
+        <v>1437.857143</v>
       </c>
       <c r="E20" s="18">
-        <v>9.047034</v>
+        <v>8.8431239999999995</v>
       </c>
       <c r="F20" s="19">
         <v>1439.5</v>
@@ -1139,10 +1159,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>819.936508</v>
+        <v>815.42857100000003</v>
       </c>
       <c r="E22" s="18">
-        <v>7.9165359999999998</v>
+        <v>7.6263870000000002</v>
       </c>
       <c r="F22" s="19">
         <v>818.7</v>
@@ -1180,10 +1200,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="1">
-        <v>429.90476200000001</v>
+        <v>428.63492100000002</v>
       </c>
       <c r="E24" s="18">
-        <v>4.5977110000000003</v>
+        <v>4.6770370000000003</v>
       </c>
       <c r="F24" s="19">
         <v>430.7</v>
@@ -1221,17 +1241,17 @@
         <v>5</v>
       </c>
       <c r="D26" s="1">
-        <v>74.444444000000004</v>
+        <v>71.714286000000001</v>
       </c>
       <c r="E26" s="18">
-        <v>2.133051</v>
+        <v>3.460378</v>
       </c>
       <c r="F26" s="19">
         <v>76.099999999999994</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.92533599999998728</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1245,17 +1265,17 @@
         <v>6</v>
       </c>
       <c r="D27" s="1">
-        <v>21.603562</v>
+        <v>22.074968999999999</v>
       </c>
       <c r="E27" s="18">
-        <v>0.25826100000000002</v>
+        <v>0.28105599999999997</v>
       </c>
       <c r="F27" s="19">
         <v>20.391061452513966</v>
       </c>
       <c r="G27" s="11">
         <f t="shared" si="0"/>
-        <v>0.95423954748603279</v>
+        <v>1.4028515474860335</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1264,17 +1284,17 @@
         <v>5</v>
       </c>
       <c r="D28" s="1">
-        <v>2.9323999999999999E-2</v>
+        <v>2.9214E-2</v>
       </c>
       <c r="E28" s="18">
-        <v>6.9999999999999999E-6</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="F28" s="19">
         <v>2.8129070045237708E-2</v>
       </c>
       <c r="G28" s="11">
         <f t="shared" si="0"/>
-        <v>1.1879299547622908E-3</v>
+        <v>1.0769299547622908E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1286,17 +1306,17 @@
         <v>6</v>
       </c>
       <c r="D29" s="1">
-        <v>39.742883999999997</v>
+        <v>38.738025999999998</v>
       </c>
       <c r="E29" s="18">
-        <v>0.54322199999999998</v>
+        <v>0.67637599999999998</v>
       </c>
       <c r="F29" s="19">
         <v>36.5</v>
       </c>
       <c r="G29" s="11">
         <f t="shared" si="0"/>
-        <v>2.6996619999999965</v>
+        <v>1.5616500000000002</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1305,17 +1325,17 @@
         <v>5</v>
       </c>
       <c r="D30" s="1">
-        <v>4.4595000000000003E-2</v>
+        <v>4.4496000000000001E-2</v>
       </c>
       <c r="E30" s="18">
-        <v>3.3000000000000003E-5</v>
+        <v>3.6999999999999998E-5</v>
       </c>
       <c r="F30" s="19">
         <v>4.2378785064090665E-2</v>
       </c>
       <c r="G30" s="11">
         <f t="shared" si="0"/>
-        <v>2.1832149359093389E-3</v>
+        <v>2.080214935909333E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1327,10 +1347,10 @@
         <v>6</v>
       </c>
       <c r="D31" s="1">
-        <v>80.481656999999998</v>
+        <v>80.436313999999996</v>
       </c>
       <c r="E31" s="18">
-        <v>10.729193</v>
+        <v>10.008226000000001</v>
       </c>
       <c r="F31" s="19">
         <v>73</v>
@@ -1346,17 +1366,17 @@
         <v>5</v>
       </c>
       <c r="D32" s="1">
-        <v>9.6160999999999996E-2</v>
+        <v>9.5898999999999998E-2</v>
       </c>
       <c r="E32" s="18">
-        <v>1.03E-4</v>
+        <v>9.7E-5</v>
       </c>
       <c r="F32" s="19">
         <v>9.2771451809678718E-2</v>
       </c>
       <c r="G32" s="11">
         <f t="shared" si="0"/>
-        <v>3.2865481903212729E-3</v>
+        <v>3.0305481903212805E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1368,17 +1388,17 @@
         <v>6</v>
       </c>
       <c r="D33" s="1">
-        <v>188.720493</v>
+        <v>172.28045800000001</v>
       </c>
       <c r="E33" s="18">
-        <v>7.8930550000000004</v>
+        <v>9.2234680000000004</v>
       </c>
       <c r="F33" s="19">
         <v>243.33333333333337</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="0"/>
-        <v>46.719785333333363</v>
+        <v>61.829407333333364</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1387,17 +1407,17 @@
         <v>5</v>
       </c>
       <c r="D34" s="1">
-        <v>0.37013000000000001</v>
+        <v>0.36122799999999999</v>
       </c>
       <c r="E34" s="18">
-        <v>5.2400000000000005E-4</v>
+        <v>1.8710000000000001E-3</v>
       </c>
       <c r="F34" s="19">
         <v>0.3679435483870967</v>
       </c>
       <c r="G34" s="11">
         <f>IF(F34&gt;D34+E34,F34-(D34+E34),IF(F34&lt;D34-E34,(D34-E34)-F34,0))</f>
-        <v>1.6624516129032929E-3</v>
+        <v>4.8445483870966921E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1411,9 +1431,9 @@
         <v>6</v>
       </c>
       <c r="D35" s="1">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="E35" s="18">
+        <v>0</v>
+      </c>
+      <c r="E35">
         <v>0</v>
       </c>
       <c r="F35" s="28">
@@ -1431,10 +1451,10 @@
         <v>5</v>
       </c>
       <c r="D36" s="1">
-        <v>2823.2492350000002</v>
-      </c>
-      <c r="E36" s="18">
-        <v>406.83753200000001</v>
+        <v>2909.9226760000001</v>
+      </c>
+      <c r="E36">
+        <v>419.06182000000001</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="24"/>
@@ -1448,9 +1468,9 @@
         <v>6</v>
       </c>
       <c r="D37" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E37" s="18">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>0</v>
       </c>
       <c r="F37" s="28"/>
@@ -1462,10 +1482,10 @@
         <v>5</v>
       </c>
       <c r="D38" s="1">
-        <v>2696.1022630000002</v>
-      </c>
-      <c r="E38" s="18">
-        <v>389.06899099999998</v>
+        <v>2756.0411020000001</v>
+      </c>
+      <c r="E38">
+        <v>400.278909</v>
       </c>
       <c r="F38" s="28">
         <f>4*365</f>
@@ -1484,7 +1504,7 @@
       <c r="D39" s="1">
         <v>0</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" s="28"/>
@@ -1496,10 +1516,10 @@
         <v>5</v>
       </c>
       <c r="D40" s="1">
-        <v>2799.358577</v>
-      </c>
-      <c r="E40" s="18">
-        <v>403.90938699999998</v>
+        <v>2861.8041229999999</v>
+      </c>
+      <c r="E40">
+        <v>414.77408400000002</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="24"/>
@@ -1515,7 +1535,7 @@
       <c r="D41" s="1">
         <v>0</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" s="28">
@@ -1530,10 +1550,10 @@
         <v>5</v>
       </c>
       <c r="D42" s="1">
-        <v>123.736752</v>
-      </c>
-      <c r="E42" s="18">
-        <v>26.468942999999999</v>
+        <v>14.068934</v>
+      </c>
+      <c r="E42">
+        <v>2.5520930000000002</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="24"/>
@@ -1542,11 +1562,11 @@
       <c r="A43" s="1"/>
       <c r="D43" s="1">
         <f>AVERAGE(D35:D42)</f>
-        <v>1055.3058541250002</v>
+        <v>1067.729604375</v>
       </c>
       <c r="E43" s="19">
         <f>AVERAGE(E35:E42)</f>
-        <v>153.28560662500001</v>
+        <v>154.58336325000002</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="24"/>
@@ -2450,347 +2470,11 @@
     <mergeCell ref="F74:F75"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G44 G46:G57 G60:G76 G78:G1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAA4144-995C-413A-BEAF-9F8542301A7D}">
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>7</v>
-      </c>
-      <c r="B1">
-        <v>7</v>
-      </c>
-      <c r="C1">
-        <v>4</v>
-      </c>
-      <c r="D1">
-        <v>11</v>
-      </c>
-      <c r="E1">
-        <v>8</v>
-      </c>
-      <c r="F1">
-        <v>8</v>
-      </c>
-      <c r="G1">
-        <v>17</v>
-      </c>
-      <c r="H1">
-        <v>8</v>
-      </c>
-      <c r="I1">
-        <v>18</v>
-      </c>
-      <c r="J1">
-        <v>12</v>
-      </c>
-      <c r="L1">
-        <f>SUM(A1:J1)</f>
-        <v>100</v>
-      </c>
-      <c r="M1">
-        <f>L1/10</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>9814</v>
-      </c>
-      <c r="B2">
-        <v>8761</v>
-      </c>
-      <c r="C2">
-        <v>8280</v>
-      </c>
-      <c r="D2">
-        <v>7896</v>
-      </c>
-      <c r="E2">
-        <v>7427</v>
-      </c>
-      <c r="F2">
-        <v>6944</v>
-      </c>
-      <c r="G2">
-        <v>6876</v>
-      </c>
-      <c r="H2">
-        <v>6588</v>
-      </c>
-      <c r="I2">
-        <v>6785</v>
-      </c>
-      <c r="J2">
-        <v>6679</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L8" si="0">SUM(A2:J2)</f>
-        <v>76050</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ref="M2:M9" si="1">L2/10</f>
-        <v>7605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>14</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>7614</v>
-      </c>
-      <c r="B4">
-        <v>6801</v>
-      </c>
-      <c r="C4">
-        <v>6506</v>
-      </c>
-      <c r="D4">
-        <v>6367</v>
-      </c>
-      <c r="E4">
-        <v>5863</v>
-      </c>
-      <c r="F4">
-        <v>5699</v>
-      </c>
-      <c r="G4">
-        <v>5526</v>
-      </c>
-      <c r="H4">
-        <v>5439</v>
-      </c>
-      <c r="I4">
-        <v>5422</v>
-      </c>
-      <c r="J4">
-        <v>5283</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>60520</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="1"/>
-        <v>6052</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="1"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2963</v>
-      </c>
-      <c r="B6">
-        <v>2827</v>
-      </c>
-      <c r="C6">
-        <v>2470</v>
-      </c>
-      <c r="D6">
-        <v>2377</v>
-      </c>
-      <c r="E6">
-        <v>2178</v>
-      </c>
-      <c r="F6">
-        <v>2074</v>
-      </c>
-      <c r="G6">
-        <v>1977</v>
-      </c>
-      <c r="H6">
-        <v>1943</v>
-      </c>
-      <c r="I6">
-        <v>1945</v>
-      </c>
-      <c r="J6">
-        <v>2041</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>22795</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
-        <v>2279.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>1100</v>
-      </c>
-      <c r="B8">
-        <v>952</v>
-      </c>
-      <c r="C8">
-        <v>896</v>
-      </c>
-      <c r="D8">
-        <v>797</v>
-      </c>
-      <c r="E8">
-        <v>883</v>
-      </c>
-      <c r="F8">
-        <v>728</v>
-      </c>
-      <c r="G8">
-        <v>744</v>
-      </c>
-      <c r="H8">
-        <v>773</v>
-      </c>
-      <c r="I8">
-        <v>746</v>
-      </c>
-      <c r="J8">
-        <v>731</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>8350</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="1"/>
-        <v>835</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/validazione.xlsx
+++ b/data/validazione.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="382" documentId="13_ncr:1_{AB1EB067-6F4B-4DC1-ABA1-DBB061550504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9926D1B0-0B38-402D-8764-EDE92EAA2BC3}"/>
+  <xr:revisionPtr revIDLastSave="396" documentId="13_ncr:1_{AB1EB067-6F4B-4DC1-ABA1-DBB061550504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EDAEB39-2972-4063-889D-886686C4A875}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
+    <workbookView minimized="1" xWindow="525" yWindow="195" windowWidth="15375" windowHeight="13050" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="ABO Compatible" sheetId="6" r:id="rId1"/>
@@ -354,27 +354,7 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -701,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B0CFC0-6B65-4A53-A15E-ECBF83434F62}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2470,7 +2450,7 @@
     <mergeCell ref="F74:F75"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G44 G46:G57 G60:G76 G78:G1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
